--- a/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids_syn_5\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAA6E45D-3573-46DE-A167-C5447C66248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AE31F4-F1D8-42C9-8815-E3EFD43DB118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVA" sheetId="6" r:id="rId1"/>
